--- a/orders.xlsx
+++ b/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
   <x:si>
     <x:t>Reference Code</x:t>
   </x:si>
@@ -25,37 +25,28 @@
     <x:t>Pending Amount</x:t>
   </x:si>
   <x:si>
+    <x:t>Delivered Amount</x:t>
+  </x:si>
+  <x:si>
     <x:t>Description</x:t>
   </x:si>
   <x:si>
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t>{"t":"s","v":"hehe","s":{"fill":{"fgColor":{"rgb":"orange"}}}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"t":"s","v":"Hatdog","s":{"fill":{"fgColor":{"rgb":"orange"}}}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"t":"n","v":100,"s":{"fill":{"fgColor":{"rgb":"orange"}}}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"t":"s","v":"a","s":{"fill":{"fgColor":{"rgb":"orange"}}}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"t":"s","v":"Pending","s":{"fill":{"fgColor":{"rgb":"orange"}}}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"t":"n","v":10,"s":{"fill":{"fgColor":{"rgb":"orange"}}}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"t":"s","v":"aa","s":{"fill":{"fgColor":{"rgb":"orange"}}}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"t":"s","v":"okay","s":{"fill":{"fgColor":{"rgb":"orange"}}}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"t":"n","v":111,"s":{"fill":{"fgColor":{"rgb":"orange"}}}}</x:t>
+    <x:t>CS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Folder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Long</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pending</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Short</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -418,7 +409,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -434,55 +425,47 @@
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:5">
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
   <x:si>
     <x:t>Reference Code</x:t>
   </x:si>
@@ -34,19 +34,22 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t>CS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Folder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Long</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pending</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Short</x:t>
+    <x:t>hehe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Desc 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Completed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item 111111111111111111111111111111111111111111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Desc 3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -437,10 +440,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>8</x:v>
@@ -454,16 +457,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>9</x:v>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,125 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet 1" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <sheets>
+    <sheet sheetId="1" name="Orders" state="visible" r:id="rId4"/>
+  </sheets>
+  <calcPr calcId="171027"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
-  <x:si>
-    <x:t>Reference Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Item Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pending Amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delivered Amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hehe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Item 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Desc 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Completed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Item 111111111111111111111111111111111111111111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Desc 3</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>Reference Code</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Pending Amount</t>
+  </si>
+  <si>
+    <t>Delivered Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>hehe</t>
+  </si>
+  <si>
+    <t>Item 1</t>
+  </si>
+  <si>
+    <t>Desc 2</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Item 111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>Desc 3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -194,6 +176,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,6 +211,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -262,20 +246,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -397,86 +377,125 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:ss="urn:schemas-microsoft-com:office:spreadsheet" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="1"/>
+    <col min="3" max="3" customWidth="1"/>
+    <col min="4" max="4" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,107 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <sheets>
-    <sheet sheetId="1" name="Orders" state="visible" r:id="rId4"/>
-  </sheets>
-  <calcPr calcId="171027"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <x:bookViews>
+    <x:workbookView firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet 1" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="125725"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Reference Code</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Pending Amount</t>
-  </si>
-  <si>
-    <t>Delivered Amount</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>hehe</t>
-  </si>
-  <si>
-    <t>Item 1</t>
-  </si>
-  <si>
-    <t>Desc 2</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Item 111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>Desc 3</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
+  <x:si>
+    <x:t>Reference Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pending Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delivered Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hehe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Desc 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"value":"Completed","style":{"font":{"color":"black"},"fill":{"type":"pattern","patternType":"solid","fgColor":"darkgreen"}}}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item 111111111111111111111111111111111111111111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Desc 3</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+</x:styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -176,7 +194,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -211,7 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -246,16 +262,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -377,125 +397,86 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" customWidth="1"/>
-    <col min="2" max="2" customWidth="1"/>
-    <col min="3" max="3" customWidth="1"/>
-    <col min="4" max="4" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:ss="urn:schemas-microsoft-com:office:spreadsheet" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:sheetViews>
+    <x:sheetView tabSelected="0" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="13">
   <x:si>
     <x:t>Reference Code</x:t>
   </x:si>
@@ -34,22 +34,25 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t>hehe</x:t>
+    <x:t>CS101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Desc 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Overlapped</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS103</x:t>
   </x:si>
   <x:si>
     <x:t>Item 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Desc 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"value":"Completed","style":{"font":{"color":"black"},"fill":{"type":"pattern","patternType":"solid","fgColor":"darkgreen"}}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Item 111111111111111111111111111111111111111111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Desc 3</x:t>
+    <x:t>Completed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -440,10 +443,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>8</x:v>
@@ -454,22 +457,22 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
